--- a/Banalyzer/CSV/fmd_report_example.xlsx
+++ b/Banalyzer/CSV/fmd_report_example.xlsx
@@ -9,38 +9,65 @@
   <sheets>
     <sheet name="Subject Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Summary - 123456789 bsl" sheetId="2" r:id="rId2"/>
+    <sheet name="Data - 123456789 bsl" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary - 123456789 rh1" sheetId="4" r:id="rId4"/>
+    <sheet name="Data - 123456789 rh1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="73">
   <si>
     <t>Study Name</t>
   </si>
   <si>
+    <t>123456789 bsl</t>
+  </si>
+  <si>
+    <t>123456789 rh1</t>
+  </si>
+  <si>
     <t>First Name</t>
   </si>
   <si>
+    <t>Jane Doe</t>
+  </si>
+  <si>
     <t>Last Name</t>
   </si>
   <si>
     <t>Study ID</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>Reader ID</t>
   </si>
   <si>
     <t>Date Scanned</t>
   </si>
   <si>
+    <t>Yesterday</t>
+  </si>
+  <si>
     <t>Date Analyzed</t>
   </si>
   <si>
+    <t>Today</t>
+  </si>
+  <si>
     <t>Condition</t>
   </si>
   <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Deflation</t>
+  </si>
+  <si>
     <t>Image File</t>
   </si>
   <si>
@@ -99,6 +126,117 @@
   </si>
   <si>
     <t>Time to peak (s)</t>
+  </si>
+  <si>
+    <t>BRACHIAL-REPORT</t>
+  </si>
+  <si>
+    <t>Report-date</t>
+  </si>
+  <si>
+    <t>Subject-ID</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>Pat-ID-type</t>
+  </si>
+  <si>
+    <t>Study-ID</t>
+  </si>
+  <si>
+    <t>Study-type</t>
+  </si>
+  <si>
+    <t>StageName</t>
+  </si>
+  <si>
+    <t>Subject-Gender</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date-of-birth</t>
+  </si>
+  <si>
+    <t>A While Back</t>
+  </si>
+  <si>
+    <t>Imaging-date</t>
+  </si>
+  <si>
+    <t>Analysis-date</t>
+  </si>
+  <si>
+    <t>Machine-ID</t>
+  </si>
+  <si>
+    <t>GE Ultrasound</t>
+  </si>
+  <si>
+    <t>Probe-ID</t>
+  </si>
+  <si>
+    <t>Sonographer-ID</t>
+  </si>
+  <si>
+    <t>Interpreter-ID</t>
+  </si>
+  <si>
+    <t>SDY-filename</t>
+  </si>
+  <si>
+    <t>Image-filename</t>
+  </si>
+  <si>
+    <t>Pixel-siz-mm/p</t>
+  </si>
+  <si>
+    <t>mm/p</t>
+  </si>
+  <si>
+    <t>ROI-length-mm</t>
+  </si>
+  <si>
+    <t>Frame-initialized</t>
+  </si>
+  <si>
+    <t>Frames-total</t>
+  </si>
+  <si>
+    <t>Frames-valid</t>
+  </si>
+  <si>
+    <t>Frames-reject</t>
+  </si>
+  <si>
+    <t>Frames-exclud</t>
+  </si>
+  <si>
+    <t>Frames-edited</t>
+  </si>
+  <si>
+    <t>Frames-notanal</t>
+  </si>
+  <si>
+    <t>Confid-thresh</t>
+  </si>
+  <si>
+    <t>Trend-thresh</t>
+  </si>
+  <si>
+    <t>Trend-MSE-mm</t>
+  </si>
+  <si>
+    <t>Reproduc-round</t>
+  </si>
+  <si>
+    <t>Reading-number</t>
   </si>
 </sst>
 </file>
@@ -152,9 +290,11 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
+      <alignment horizontal="centerContinuous" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,96 +603,138 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2">
+        <v>500</v>
+      </c>
+      <c r="K2" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" ht="20" customHeight="1"/>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+    </row>
     <row r="6" spans="1:21">
       <c r="B6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -561,6 +743,728 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B500"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1"/>
+    <row r="36" spans="1:1" s="2" customFormat="1"/>
+    <row r="38" spans="1:1" s="2" customFormat="1"/>
+    <row r="40" spans="1:1" s="2" customFormat="1"/>
+    <row r="42" spans="1:1" s="2" customFormat="1"/>
+    <row r="44" spans="1:1" s="2" customFormat="1"/>
+    <row r="46" spans="1:1" s="2" customFormat="1"/>
+    <row r="48" spans="1:1" s="2" customFormat="1"/>
+    <row r="50" s="2" customFormat="1"/>
+    <row r="52" s="2" customFormat="1"/>
+    <row r="54" s="2" customFormat="1"/>
+    <row r="56" s="2" customFormat="1"/>
+    <row r="58" s="2" customFormat="1"/>
+    <row r="60" s="2" customFormat="1"/>
+    <row r="62" s="2" customFormat="1"/>
+    <row r="64" s="2" customFormat="1"/>
+    <row r="66" s="2" customFormat="1"/>
+    <row r="68" s="2" customFormat="1"/>
+    <row r="70" s="2" customFormat="1"/>
+    <row r="72" s="2" customFormat="1"/>
+    <row r="74" s="2" customFormat="1"/>
+    <row r="76" s="2" customFormat="1"/>
+    <row r="78" s="2" customFormat="1"/>
+    <row r="80" s="2" customFormat="1"/>
+    <row r="82" s="2" customFormat="1"/>
+    <row r="84" s="2" customFormat="1"/>
+    <row r="86" s="2" customFormat="1"/>
+    <row r="88" s="2" customFormat="1"/>
+    <row r="90" s="2" customFormat="1"/>
+    <row r="92" s="2" customFormat="1"/>
+    <row r="94" s="2" customFormat="1"/>
+    <row r="96" s="2" customFormat="1"/>
+    <row r="98" s="2" customFormat="1"/>
+    <row r="100" s="2" customFormat="1"/>
+    <row r="102" s="2" customFormat="1"/>
+    <row r="104" s="2" customFormat="1"/>
+    <row r="106" s="2" customFormat="1"/>
+    <row r="108" s="2" customFormat="1"/>
+    <row r="110" s="2" customFormat="1"/>
+    <row r="112" s="2" customFormat="1"/>
+    <row r="114" s="2" customFormat="1"/>
+    <row r="116" s="2" customFormat="1"/>
+    <row r="118" s="2" customFormat="1"/>
+    <row r="120" s="2" customFormat="1"/>
+    <row r="122" s="2" customFormat="1"/>
+    <row r="124" s="2" customFormat="1"/>
+    <row r="126" s="2" customFormat="1"/>
+    <row r="128" s="2" customFormat="1"/>
+    <row r="130" s="2" customFormat="1"/>
+    <row r="132" s="2" customFormat="1"/>
+    <row r="134" s="2" customFormat="1"/>
+    <row r="136" s="2" customFormat="1"/>
+    <row r="138" s="2" customFormat="1"/>
+    <row r="140" s="2" customFormat="1"/>
+    <row r="142" s="2" customFormat="1"/>
+    <row r="144" s="2" customFormat="1"/>
+    <row r="146" s="2" customFormat="1"/>
+    <row r="148" s="2" customFormat="1"/>
+    <row r="150" s="2" customFormat="1"/>
+    <row r="152" s="2" customFormat="1"/>
+    <row r="154" s="2" customFormat="1"/>
+    <row r="156" s="2" customFormat="1"/>
+    <row r="158" s="2" customFormat="1"/>
+    <row r="160" s="2" customFormat="1"/>
+    <row r="162" s="2" customFormat="1"/>
+    <row r="164" s="2" customFormat="1"/>
+    <row r="166" s="2" customFormat="1"/>
+    <row r="168" s="2" customFormat="1"/>
+    <row r="170" s="2" customFormat="1"/>
+    <row r="172" s="2" customFormat="1"/>
+    <row r="174" s="2" customFormat="1"/>
+    <row r="176" s="2" customFormat="1"/>
+    <row r="178" s="2" customFormat="1"/>
+    <row r="180" s="2" customFormat="1"/>
+    <row r="182" s="2" customFormat="1"/>
+    <row r="184" s="2" customFormat="1"/>
+    <row r="186" s="2" customFormat="1"/>
+    <row r="188" s="2" customFormat="1"/>
+    <row r="190" s="2" customFormat="1"/>
+    <row r="192" s="2" customFormat="1"/>
+    <row r="194" s="2" customFormat="1"/>
+    <row r="196" s="2" customFormat="1"/>
+    <row r="198" s="2" customFormat="1"/>
+    <row r="200" s="2" customFormat="1"/>
+    <row r="202" s="2" customFormat="1"/>
+    <row r="204" s="2" customFormat="1"/>
+    <row r="206" s="2" customFormat="1"/>
+    <row r="208" s="2" customFormat="1"/>
+    <row r="210" s="2" customFormat="1"/>
+    <row r="212" s="2" customFormat="1"/>
+    <row r="214" s="2" customFormat="1"/>
+    <row r="216" s="2" customFormat="1"/>
+    <row r="218" s="2" customFormat="1"/>
+    <row r="220" s="2" customFormat="1"/>
+    <row r="222" s="2" customFormat="1"/>
+    <row r="224" s="2" customFormat="1"/>
+    <row r="226" s="2" customFormat="1"/>
+    <row r="228" s="2" customFormat="1"/>
+    <row r="230" s="2" customFormat="1"/>
+    <row r="232" s="2" customFormat="1"/>
+    <row r="234" s="2" customFormat="1"/>
+    <row r="236" s="2" customFormat="1"/>
+    <row r="238" s="2" customFormat="1"/>
+    <row r="240" s="2" customFormat="1"/>
+    <row r="242" s="2" customFormat="1"/>
+    <row r="244" s="2" customFormat="1"/>
+    <row r="246" s="2" customFormat="1"/>
+    <row r="248" s="2" customFormat="1"/>
+    <row r="250" s="2" customFormat="1"/>
+    <row r="252" s="2" customFormat="1"/>
+    <row r="254" s="2" customFormat="1"/>
+    <row r="256" s="2" customFormat="1"/>
+    <row r="258" s="2" customFormat="1"/>
+    <row r="260" s="2" customFormat="1"/>
+    <row r="262" s="2" customFormat="1"/>
+    <row r="264" s="2" customFormat="1"/>
+    <row r="266" s="2" customFormat="1"/>
+    <row r="268" s="2" customFormat="1"/>
+    <row r="270" s="2" customFormat="1"/>
+    <row r="272" s="2" customFormat="1"/>
+    <row r="274" s="2" customFormat="1"/>
+    <row r="276" s="2" customFormat="1"/>
+    <row r="278" s="2" customFormat="1"/>
+    <row r="280" s="2" customFormat="1"/>
+    <row r="282" s="2" customFormat="1"/>
+    <row r="284" s="2" customFormat="1"/>
+    <row r="286" s="2" customFormat="1"/>
+    <row r="288" s="2" customFormat="1"/>
+    <row r="290" s="2" customFormat="1"/>
+    <row r="292" s="2" customFormat="1"/>
+    <row r="294" s="2" customFormat="1"/>
+    <row r="296" s="2" customFormat="1"/>
+    <row r="298" s="2" customFormat="1"/>
+    <row r="300" s="2" customFormat="1"/>
+    <row r="302" s="2" customFormat="1"/>
+    <row r="304" s="2" customFormat="1"/>
+    <row r="306" s="2" customFormat="1"/>
+    <row r="308" s="2" customFormat="1"/>
+    <row r="310" s="2" customFormat="1"/>
+    <row r="312" s="2" customFormat="1"/>
+    <row r="314" s="2" customFormat="1"/>
+    <row r="316" s="2" customFormat="1"/>
+    <row r="318" s="2" customFormat="1"/>
+    <row r="320" s="2" customFormat="1"/>
+    <row r="322" s="2" customFormat="1"/>
+    <row r="324" s="2" customFormat="1"/>
+    <row r="326" s="2" customFormat="1"/>
+    <row r="328" s="2" customFormat="1"/>
+    <row r="330" s="2" customFormat="1"/>
+    <row r="332" s="2" customFormat="1"/>
+    <row r="334" s="2" customFormat="1"/>
+    <row r="336" s="2" customFormat="1"/>
+    <row r="338" s="2" customFormat="1"/>
+    <row r="340" s="2" customFormat="1"/>
+    <row r="342" s="2" customFormat="1"/>
+    <row r="344" s="2" customFormat="1"/>
+    <row r="346" s="2" customFormat="1"/>
+    <row r="348" s="2" customFormat="1"/>
+    <row r="350" s="2" customFormat="1"/>
+    <row r="352" s="2" customFormat="1"/>
+    <row r="354" s="2" customFormat="1"/>
+    <row r="356" s="2" customFormat="1"/>
+    <row r="358" s="2" customFormat="1"/>
+    <row r="360" s="2" customFormat="1"/>
+    <row r="362" s="2" customFormat="1"/>
+    <row r="364" s="2" customFormat="1"/>
+    <row r="366" s="2" customFormat="1"/>
+    <row r="368" s="2" customFormat="1"/>
+    <row r="370" s="2" customFormat="1"/>
+    <row r="372" s="2" customFormat="1"/>
+    <row r="374" s="2" customFormat="1"/>
+    <row r="376" s="2" customFormat="1"/>
+    <row r="378" s="2" customFormat="1"/>
+    <row r="380" s="2" customFormat="1"/>
+    <row r="382" s="2" customFormat="1"/>
+    <row r="384" s="2" customFormat="1"/>
+    <row r="386" s="2" customFormat="1"/>
+    <row r="388" s="2" customFormat="1"/>
+    <row r="390" s="2" customFormat="1"/>
+    <row r="392" s="2" customFormat="1"/>
+    <row r="394" s="2" customFormat="1"/>
+    <row r="396" s="2" customFormat="1"/>
+    <row r="398" s="2" customFormat="1"/>
+    <row r="400" s="2" customFormat="1"/>
+    <row r="402" s="2" customFormat="1"/>
+    <row r="404" s="2" customFormat="1"/>
+    <row r="406" s="2" customFormat="1"/>
+    <row r="408" s="2" customFormat="1"/>
+    <row r="410" s="2" customFormat="1"/>
+    <row r="412" s="2" customFormat="1"/>
+    <row r="414" s="2" customFormat="1"/>
+    <row r="416" s="2" customFormat="1"/>
+    <row r="418" s="2" customFormat="1"/>
+    <row r="420" s="2" customFormat="1"/>
+    <row r="422" s="2" customFormat="1"/>
+    <row r="424" s="2" customFormat="1"/>
+    <row r="426" s="2" customFormat="1"/>
+    <row r="428" s="2" customFormat="1"/>
+    <row r="430" s="2" customFormat="1"/>
+    <row r="432" s="2" customFormat="1"/>
+    <row r="434" s="2" customFormat="1"/>
+    <row r="436" s="2" customFormat="1"/>
+    <row r="438" s="2" customFormat="1"/>
+    <row r="440" s="2" customFormat="1"/>
+    <row r="442" s="2" customFormat="1"/>
+    <row r="444" s="2" customFormat="1"/>
+    <row r="446" s="2" customFormat="1"/>
+    <row r="448" s="2" customFormat="1"/>
+    <row r="450" s="2" customFormat="1"/>
+    <row r="452" s="2" customFormat="1"/>
+    <row r="454" s="2" customFormat="1"/>
+    <row r="456" s="2" customFormat="1"/>
+    <row r="458" s="2" customFormat="1"/>
+    <row r="460" s="2" customFormat="1"/>
+    <row r="462" s="2" customFormat="1"/>
+    <row r="464" s="2" customFormat="1"/>
+    <row r="466" s="2" customFormat="1"/>
+    <row r="468" s="2" customFormat="1"/>
+    <row r="470" s="2" customFormat="1"/>
+    <row r="472" s="2" customFormat="1"/>
+    <row r="474" s="2" customFormat="1"/>
+    <row r="476" s="2" customFormat="1"/>
+    <row r="478" s="2" customFormat="1"/>
+    <row r="480" s="2" customFormat="1"/>
+    <row r="482" s="2" customFormat="1"/>
+    <row r="484" s="2" customFormat="1"/>
+    <row r="486" s="2" customFormat="1"/>
+    <row r="488" s="2" customFormat="1"/>
+    <row r="490" s="2" customFormat="1"/>
+    <row r="492" s="2" customFormat="1"/>
+    <row r="494" s="2" customFormat="1"/>
+    <row r="496" s="2" customFormat="1"/>
+    <row r="498" s="2" customFormat="1"/>
+    <row r="500" s="2" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20" customHeight="1"/>
+    <row r="2" s="2" customFormat="1"/>
+    <row r="4" s="2" customFormat="1"/>
+    <row r="6" s="2" customFormat="1"/>
+    <row r="8" s="2" customFormat="1"/>
+    <row r="10" s="2" customFormat="1"/>
+    <row r="12" s="2" customFormat="1"/>
+    <row r="14" s="2" customFormat="1"/>
+    <row r="16" s="2" customFormat="1"/>
+    <row r="18" s="2" customFormat="1"/>
+    <row r="20" s="2" customFormat="1"/>
+    <row r="22" s="2" customFormat="1"/>
+    <row r="24" s="2" customFormat="1"/>
+    <row r="26" s="2" customFormat="1"/>
+    <row r="28" s="2" customFormat="1"/>
+    <row r="30" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="42" s="2" customFormat="1"/>
+    <row r="44" s="2" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="2" customFormat="1">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="2" customFormat="1">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="2" customFormat="1">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="2" customFormat="1">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1">
+      <c r="A12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="2" customFormat="1">
+      <c r="A20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="2" customFormat="1">
+      <c r="A24" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="2" customFormat="1">
+      <c r="A26" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" s="2" customFormat="1">
+      <c r="A28" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="2" customFormat="1">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="2" customFormat="1">
+      <c r="A32" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="2" customFormat="1"/>
+    <row r="36" spans="1:1" s="2" customFormat="1"/>
+    <row r="38" spans="1:1" s="2" customFormat="1"/>
+    <row r="40" spans="1:1" s="2" customFormat="1"/>
+    <row r="42" spans="1:1" s="2" customFormat="1"/>
+    <row r="44" spans="1:1" s="2" customFormat="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
